--- a/examples/sources/data/unsolved/to_schedule/2019-03-19.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-03-19.xlsx
@@ -1941,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="2">
         <v>43543</v>
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -3303,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -4721,7 +4721,7 @@
         <v>1</v>
       </c>
       <c r="N85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O85" s="2">
         <v>43543</v>
@@ -4900,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="M89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="N92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O92" s="2">
         <v>43543</v>
@@ -5445,7 +5445,7 @@
         <v>1</v>
       </c>
       <c r="N102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O102" s="2">
         <v>43543</v>
@@ -5609,7 +5609,7 @@
         <v>1</v>
       </c>
       <c r="N106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O106" s="2">
         <v>43543</v>
@@ -5647,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="M107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -6307,7 +6307,7 @@
         <v>0</v>
       </c>
       <c r="M122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N122">
         <v>1</v>
@@ -9343,7 +9343,7 @@
         <v>1</v>
       </c>
       <c r="N194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O194" s="2">
         <v>43543</v>
